--- a/documents/外部設計書_Q&Aルーム_雑談ルーム.xlsx
+++ b/documents/外部設計書_Q&Aルーム_雑談ルーム.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Webアプリチーム開発演習\作成ドキュメント\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:201_{4C4F55B5-739C-442F-A608-B34A5109DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB63BF6-B6F9-4EA2-AFDC-5D0EAEA62E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,6 +961,36 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,6 +1054,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,39 +1069,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4042,6 +4042,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>a</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -6006,10 +6010,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6344,154 +6344,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="46" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="61" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="55"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="56" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="69">
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70">
         <v>44351</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="58" t="s">
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="60"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="48" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7802,128 +7802,128 @@
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="65"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="40"/>
       <c r="AN36" s="7"/>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="65"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="40"/>
       <c r="AN37" s="7"/>
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="68"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42"/>
+      <c r="AM38" s="43"/>
       <c r="AN38" s="7"/>
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8100,7 +8100,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="44" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="8"/>
@@ -8145,18 +8145,18 @@
       <c r="B44" s="6"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="72" t="s">
+      <c r="E44" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
@@ -8230,14 +8230,14 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -8275,7 +8275,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="72" t="s">
+      <c r="E47" s="46" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="9"/>
@@ -8360,11 +8360,11 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="74" t="s">
+      <c r="D49" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -8405,14 +8405,14 @@
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="72" t="s">
+      <c r="E50" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -8490,7 +8490,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="48" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="9"/>
@@ -8535,31 +8535,31 @@
       <c r="B53" s="6"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="72" t="s">
+      <c r="E53" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="72"/>
-      <c r="T53" s="72"/>
-      <c r="U53" s="72"/>
-      <c r="V53" s="72"/>
-      <c r="W53" s="72"/>
-      <c r="X53" s="72"/>
-      <c r="Y53" s="72"/>
-      <c r="Z53" s="72"/>
-      <c r="AA53" s="72"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="46"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
@@ -8620,15 +8620,15 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -8665,28 +8665,28 @@
       <c r="B56" s="6"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="72"/>
-      <c r="V56" s="72"/>
-      <c r="W56" s="72"/>
-      <c r="X56" s="72"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
@@ -8750,7 +8750,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="10"/>
-      <c r="D58" s="74" t="s">
+      <c r="D58" s="48" t="s">
         <v>43</v>
       </c>
       <c r="E58" s="9"/>
@@ -8836,7 +8836,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="74" t="s">
+      <c r="D60" s="48" t="s">
         <v>44</v>
       </c>
       <c r="E60" s="9"/>
@@ -8881,7 +8881,7 @@
       <c r="B61" s="6"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="72" t="s">
+      <c r="E61" s="46" t="s">
         <v>45</v>
       </c>
       <c r="F61" s="9"/>
@@ -8966,7 +8966,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="74" t="s">
+      <c r="D63" s="48" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="9"/>
@@ -9011,7 +9011,7 @@
       <c r="B64" s="6"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="72" t="s">
+      <c r="E64" s="46" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="9"/>
@@ -10783,8 +10783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CD1698-29E5-4929-AF49-2D562046D297}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:AE61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10794,154 +10794,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="46" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="61" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="55"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="56" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="69">
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70">
         <v>44351</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="58" t="s">
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="60"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="48" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -12252,128 +12252,128 @@
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="65"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="40"/>
       <c r="AN36" s="7"/>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="65"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="40"/>
       <c r="AN37" s="7"/>
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="68"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42"/>
+      <c r="AM38" s="43"/>
       <c r="AN38" s="7"/>
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12550,7 +12550,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="44" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="8"/>
@@ -12637,22 +12637,22 @@
       <c r="B45" s="6"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="73"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="47"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
@@ -12722,14 +12722,14 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -12809,7 +12809,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="46" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="9"/>
@@ -12981,14 +12981,14 @@
       <c r="B53" s="6"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="72" t="s">
+      <c r="E53" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
@@ -13066,7 +13066,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="9"/>
@@ -13152,31 +13152,31 @@
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="72" t="s">
+      <c r="E57" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="72"/>
-      <c r="W57" s="72"/>
-      <c r="X57" s="72"/>
-      <c r="Y57" s="72"/>
-      <c r="Z57" s="72"/>
-      <c r="AA57" s="72"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="46"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
@@ -13237,15 +13237,15 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="74" t="s">
+      <c r="D59" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -13324,28 +13324,28 @@
       <c r="B61" s="6"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="72" t="s">
+      <c r="E61" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="72"/>
-      <c r="W61" s="72"/>
-      <c r="X61" s="72"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -15402,6 +15402,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -15409,14 +15416,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
